--- a/source/VBA/src/test/test2.xlsx
+++ b/source/VBA/src/test/test2.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23715" windowHeight="13230" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="23715" windowHeight="13230" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sut.properties" sheetId="4" r:id="rId1"/>
-    <sheet name="dbo.M_CLASSIFICATION" sheetId="28" r:id="rId2"/>
-    <sheet name="dbo.M_SYSTEM" sheetId="29" r:id="rId3"/>
-    <sheet name="dbo.M_USER" sheetId="30" r:id="rId4"/>
-    <sheet name="sampleSchema.sample" sheetId="31" r:id="rId5"/>
-    <sheet name="sampleSchema.sample_any" sheetId="32" r:id="rId6"/>
+    <sheet name="dbo.M_CLASSIFICATION" sheetId="75" r:id="rId2"/>
+    <sheet name="dbo.M_SYSTEM" sheetId="76" r:id="rId3"/>
+    <sheet name="dbo.M_USER" sheetId="77" r:id="rId4"/>
+    <sheet name="sampleSchema.sample" sheetId="71" r:id="rId5"/>
+    <sheet name="sampleSchema.sample_any" sheetId="72" r:id="rId6"/>
     <sheet name="test_schema.comment" sheetId="33" r:id="rId7"/>
-    <sheet name="test_schema.data_all_type" sheetId="34" r:id="rId8"/>
+    <sheet name="test_schema.data_all_type" sheetId="73" r:id="rId8"/>
     <sheet name="test_schema.data_all_type_other" sheetId="35" r:id="rId9"/>
-    <sheet name="test_schema.default_" sheetId="36" r:id="rId10"/>
+    <sheet name="test_schema.default_" sheetId="74" r:id="rId10"/>
     <sheet name="test_schema.fk" sheetId="37" r:id="rId11"/>
     <sheet name="test_schema.fk_multiple" sheetId="38" r:id="rId12"/>
     <sheet name="test_schema.fk2" sheetId="39" r:id="rId13"/>
@@ -29,13 +29,16 @@
     <sheet name="テストスキーマ.テーブル" sheetId="46" r:id="rId20"/>
     <sheet name="テストスキーマ.テーブル２" sheetId="47" r:id="rId21"/>
     <sheet name="テストスキーマ__.テーブル__" sheetId="48" r:id="rId22"/>
+    <sheet name="Sheet1" sheetId="49" r:id="rId23"/>
+    <sheet name="Sheet2" sheetId="50" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="225">
   <si>
     <t>変数</t>
     <rPh sb="0" eb="2">
@@ -113,15 +116,7 @@
     <t>txtOption</t>
   </si>
   <si>
-    <t>テーブル</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>カラム</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>コメント</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -768,6 +763,52 @@
   </si>
   <si>
     <t>CR</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>If tglFilter%A%.value = True Then
+    tglFilter%A%_Click
+End IF</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カラム</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>UNIQUE KEY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カラム</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>timeout=353455</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -927,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,6 +1031,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1025,7 +1069,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1080,7 +1124,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1135,7 +1179,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1234,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1289,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1344,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1399,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1454,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1509,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1564,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1657,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1712,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1767,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1778,7 +1822,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,6 +1857,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>454916</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>132113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="342900"/>
+          <a:ext cx="18285716" cy="9904763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1833,7 +1920,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +1975,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +2030,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,7 +2085,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2140,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2195,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2250,7 @@
         <xdr:cNvPr id="2" name="SUT_WORKSHEET_MARK_TO_UNDER">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2578,7 @@
   <dimension ref="B2:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2566,13 +2653,13 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -2580,10 +2667,10 @@
         <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -2591,13 +2678,13 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -2610,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -2618,7 +2705,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -2626,12 +2713,15 @@
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="E11" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="13.5">
@@ -2654,7 +2744,7 @@
       <selection activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
       <selection pane="topRight" activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
       <selection pane="bottomLeft" activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12"/>
@@ -2671,17 +2761,17 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="9" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2690,79 +2780,79 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="13.5">
       <c r="B14" s="17">
-        <f t="shared" ref="B14:B23" si="0">ROW() - 13</f>
+        <f>ROW() - 13</f>
         <v>1</v>
       </c>
       <c r="C14" s="16"/>
@@ -2770,7 +2860,7 @@
     </row>
     <row r="15" spans="1:6" ht="13.5">
       <c r="B15" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>2</v>
       </c>
       <c r="C15" s="16"/>
@@ -2778,7 +2868,7 @@
     </row>
     <row r="16" spans="1:6" ht="13.5">
       <c r="B16" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>3</v>
       </c>
       <c r="C16" s="16"/>
@@ -2786,7 +2876,7 @@
     </row>
     <row r="17" spans="2:4" ht="13.5">
       <c r="B17" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>4</v>
       </c>
       <c r="C17" s="16"/>
@@ -2794,7 +2884,7 @@
     </row>
     <row r="18" spans="2:4" ht="13.5">
       <c r="B18" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>5</v>
       </c>
       <c r="C18" s="16"/>
@@ -2802,7 +2892,7 @@
     </row>
     <row r="19" spans="2:4" ht="13.5">
       <c r="B19" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>6</v>
       </c>
       <c r="C19" s="16"/>
@@ -2810,7 +2900,7 @@
     </row>
     <row r="20" spans="2:4" ht="13.5">
       <c r="B20" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>7</v>
       </c>
       <c r="C20" s="16"/>
@@ -2818,7 +2908,7 @@
     </row>
     <row r="21" spans="2:4" ht="13.5">
       <c r="B21" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>8</v>
       </c>
       <c r="C21" s="16"/>
@@ -2826,7 +2916,7 @@
     </row>
     <row r="22" spans="2:4" ht="13.5">
       <c r="B22" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>9</v>
       </c>
       <c r="C22" s="16"/>
@@ -2834,7 +2924,7 @@
     </row>
     <row r="23" spans="2:4" ht="13.5">
       <c r="B23" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>10</v>
       </c>
       <c r="C23" s="16"/>
@@ -2877,17 +2967,17 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2896,24 +2986,24 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2922,41 +3012,41 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2965,10 +3055,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -2976,7 +3066,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2985,13 +3075,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.5">
@@ -3131,17 +3221,17 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3150,24 +3240,24 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -3176,41 +3266,41 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -3219,10 +3309,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -3230,27 +3320,27 @@
     </row>
     <row r="12" spans="1:6" ht="24">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13" s="15"/>
     </row>
@@ -3391,17 +3481,17 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3410,24 +3500,24 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -3436,41 +3526,41 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -3479,10 +3569,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -3490,22 +3580,22 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -3647,17 +3737,17 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3666,24 +3756,24 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -3692,41 +3782,41 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -3735,10 +3825,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -3746,7 +3836,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -3755,7 +3845,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -3899,17 +3989,17 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3918,70 +4008,70 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -4103,17 +4193,17 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -4122,21 +4212,21 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -4144,35 +4234,35 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -4180,19 +4270,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -4200,7 +4290,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -4333,17 +4423,17 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -4352,72 +4442,72 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -4539,17 +4629,17 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -4558,21 +4648,21 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -4580,35 +4670,35 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -4616,29 +4706,29 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -4749,12 +4839,12 @@
   <sheetPr codeName="TemplateTableSheetX17"/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="13" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
       <selection pane="topRight" activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
       <selection pane="bottomLeft" activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12"/>
@@ -4771,17 +4861,17 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -4790,27 +4880,27 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>115</v>
-      </c>
       <c r="G6" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -4820,47 +4910,47 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -4870,10 +4960,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -4882,25 +4972,25 @@
     </row>
     <row r="12" spans="1:7" ht="24">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -5020,22 +5110,22 @@
     </row>
     <row r="27" spans="2:17" ht="132">
       <c r="I27" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="K27" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="M27" s="8" t="s">
+      <c r="N27" s="18" t="s">
         <v>206</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>208</v>
       </c>
       <c r="O27" s="8">
         <v>1</v>
@@ -5233,17 +5323,17 @@
     </row>
     <row r="2" spans="1:24">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="B3" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -5252,78 +5342,78 @@
     </row>
     <row r="6" spans="1:24">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="L6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="M6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="P6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="Q6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="R6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="S6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="T6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="U6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="V6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="W6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="X6" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -5350,149 +5440,149 @@
     </row>
     <row r="8" spans="1:24">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="F8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="K8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="15" t="s">
+      <c r="T8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="U8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="T8" s="15" t="s">
+      <c r="V8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="W8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="X8" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="W8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -5500,10 +5590,10 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -5515,7 +5605,7 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
@@ -5525,10 +5615,10 @@
     </row>
     <row r="11" spans="1:24">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -5554,15 +5644,15 @@
     </row>
     <row r="12" spans="1:24">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -5585,7 +5675,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -5612,7 +5702,7 @@
     </row>
     <row r="14" spans="1:24" ht="13.5">
       <c r="B14" s="17">
-        <f t="shared" ref="B14:B23" si="0">ROW() - 13</f>
+        <f>ROW() - 13</f>
         <v>1</v>
       </c>
       <c r="C14" s="16"/>
@@ -5640,7 +5730,7 @@
     </row>
     <row r="15" spans="1:24" ht="13.5">
       <c r="B15" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>2</v>
       </c>
       <c r="C15" s="16"/>
@@ -5668,7 +5758,7 @@
     </row>
     <row r="16" spans="1:24" ht="13.5">
       <c r="B16" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>3</v>
       </c>
       <c r="C16" s="16"/>
@@ -5696,7 +5786,7 @@
     </row>
     <row r="17" spans="2:24" ht="13.5">
       <c r="B17" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>4</v>
       </c>
       <c r="C17" s="16"/>
@@ -5724,7 +5814,7 @@
     </row>
     <row r="18" spans="2:24" ht="13.5">
       <c r="B18" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>5</v>
       </c>
       <c r="C18" s="16"/>
@@ -5752,7 +5842,7 @@
     </row>
     <row r="19" spans="2:24" ht="13.5">
       <c r="B19" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>6</v>
       </c>
       <c r="C19" s="16"/>
@@ -5780,7 +5870,7 @@
     </row>
     <row r="20" spans="2:24" ht="13.5">
       <c r="B20" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>7</v>
       </c>
       <c r="C20" s="16"/>
@@ -5808,7 +5898,7 @@
     </row>
     <row r="21" spans="2:24" ht="13.5">
       <c r="B21" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>8</v>
       </c>
       <c r="C21" s="16"/>
@@ -5836,7 +5926,7 @@
     </row>
     <row r="22" spans="2:24" ht="13.5">
       <c r="B22" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>9</v>
       </c>
       <c r="C22" s="16"/>
@@ -5864,7 +5954,7 @@
     </row>
     <row r="23" spans="2:24" ht="13.5">
       <c r="B23" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>10</v>
       </c>
       <c r="C23" s="16"/>
@@ -5927,17 +6017,17 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -5946,27 +6036,27 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -5976,47 +6066,47 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -6026,10 +6116,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -6038,11 +6128,11 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -6050,7 +6140,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -6205,17 +6295,17 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6224,55 +6314,55 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="15"/>
     </row>
@@ -6383,17 +6473,17 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6402,27 +6492,27 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -6432,47 +6522,47 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -6482,10 +6572,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -6494,11 +6584,11 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -6506,7 +6596,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -6631,6 +6721,358 @@
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B3:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="115.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="40.5">
+      <c r="B3" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CHAR(65)</f>
+        <v>A</v>
+      </c>
+      <c r="D3" t="str">
+        <f>SUBSTITUTE($B$3,"%A%",C3)</f>
+        <v>If tglFilterA.value = True Then
+    tglFilterA_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" t="str">
+        <f>CHAR(65+ROW()-3)</f>
+        <v>B</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D28" si="0">SUBSTITUTE($B$3,"%A%",C4)</f>
+        <v>If tglFilterB.value = True Then
+    tglFilterB_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C28" si="1">CHAR(65+ROW()-3)</f>
+        <v>C</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterC.value = True Then
+    tglFilterC_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterD.value = True Then
+    tglFilterD_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterE.value = True Then
+    tglFilterE_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterF.value = True Then
+    tglFilterF_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>G</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterG.value = True Then
+    tglFilterG_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterH.value = True Then
+    tglFilterH_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>I</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterI.value = True Then
+    tglFilterI_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>J</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterJ.value = True Then
+    tglFilterJ_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>K</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterK.value = True Then
+    tglFilterK_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>L</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterL.value = True Then
+    tglFilterL_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterM.value = True Then
+    tglFilterM_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterN.value = True Then
+    tglFilterN_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterO.value = True Then
+    tglFilterO_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>P</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterP.value = True Then
+    tglFilterP_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>Q</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterQ.value = True Then
+    tglFilterQ_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>R</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterR.value = True Then
+    tglFilterR_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>S</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterS.value = True Then
+    tglFilterS_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterT.value = True Then
+    tglFilterT_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>U</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterU.value = True Then
+    tglFilterU_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterV.value = True Then
+    tglFilterV_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>W</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterW.value = True Then
+    tglFilterW_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterX.value = True Then
+    tglFilterX_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterY.value = True Then
+    tglFilterY_Click
+End IF</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>Z</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>If tglFilterZ.value = True Then
+    tglFilterZ_Click
+End IF</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6661,17 +7103,17 @@
     </row>
     <row r="2" spans="1:16">
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6680,54 +7122,54 @@
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="12" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="G6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="L6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="M6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="P6" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="14" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -6746,101 +7188,101 @@
     </row>
     <row r="8" spans="1:16">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>50</v>
-      </c>
       <c r="H8" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -6856,15 +7298,15 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="14" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -6882,11 +7324,11 @@
     </row>
     <row r="12" spans="1:16">
       <c r="B12" s="14" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -6903,7 +7345,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="B13" s="14" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -6922,7 +7364,7 @@
     </row>
     <row r="14" spans="1:16" ht="13.5">
       <c r="B14" s="17">
-        <f t="shared" ref="B14:B23" si="0">ROW() - 13</f>
+        <f>ROW() - 13</f>
         <v>1</v>
       </c>
       <c r="C14" s="16"/>
@@ -6942,7 +7384,7 @@
     </row>
     <row r="15" spans="1:16" ht="13.5">
       <c r="B15" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>2</v>
       </c>
       <c r="C15" s="16"/>
@@ -6962,7 +7404,7 @@
     </row>
     <row r="16" spans="1:16" ht="13.5">
       <c r="B16" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>3</v>
       </c>
       <c r="C16" s="16"/>
@@ -6982,7 +7424,7 @@
     </row>
     <row r="17" spans="2:16" ht="13.5">
       <c r="B17" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>4</v>
       </c>
       <c r="C17" s="16"/>
@@ -7002,7 +7444,7 @@
     </row>
     <row r="18" spans="2:16" ht="13.5">
       <c r="B18" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>5</v>
       </c>
       <c r="C18" s="16"/>
@@ -7022,7 +7464,7 @@
     </row>
     <row r="19" spans="2:16" ht="13.5">
       <c r="B19" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>6</v>
       </c>
       <c r="C19" s="16"/>
@@ -7042,7 +7484,7 @@
     </row>
     <row r="20" spans="2:16" ht="13.5">
       <c r="B20" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>7</v>
       </c>
       <c r="C20" s="16"/>
@@ -7062,7 +7504,7 @@
     </row>
     <row r="21" spans="2:16" ht="13.5">
       <c r="B21" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>8</v>
       </c>
       <c r="C21" s="16"/>
@@ -7082,7 +7524,7 @@
     </row>
     <row r="22" spans="2:16" ht="13.5">
       <c r="B22" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>9</v>
       </c>
       <c r="C22" s="16"/>
@@ -7102,7 +7544,7 @@
     </row>
     <row r="23" spans="2:16" ht="13.5">
       <c r="B23" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>10</v>
       </c>
       <c r="C23" s="16"/>
@@ -7135,12 +7577,12 @@
   <sheetPr codeName="TemplateTableSheetX2"/>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
       <selection pane="topRight" activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
       <selection pane="bottomLeft" activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12"/>
@@ -7157,17 +7599,17 @@
     </row>
     <row r="2" spans="1:21">
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="B3" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -7176,69 +7618,69 @@
     </row>
     <row r="6" spans="1:21">
       <c r="B6" s="12" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="L6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="P6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="Q6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="R6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="S6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="T6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="U6" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="B7" s="14" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -7262,131 +7704,131 @@
     </row>
     <row r="8" spans="1:21">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="M8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -7407,15 +7849,15 @@
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="14" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -7438,11 +7880,11 @@
     </row>
     <row r="12" spans="1:21">
       <c r="B12" s="14" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -7464,7 +7906,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="14" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -7488,7 +7930,7 @@
     </row>
     <row r="14" spans="1:21" ht="13.5">
       <c r="B14" s="17">
-        <f t="shared" ref="B14:B23" si="0">ROW() - 13</f>
+        <f>ROW() - 13</f>
         <v>1</v>
       </c>
       <c r="C14" s="16"/>
@@ -7513,7 +7955,7 @@
     </row>
     <row r="15" spans="1:21" ht="13.5">
       <c r="B15" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>2</v>
       </c>
       <c r="C15" s="16"/>
@@ -7538,7 +7980,7 @@
     </row>
     <row r="16" spans="1:21" ht="13.5">
       <c r="B16" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>3</v>
       </c>
       <c r="C16" s="16"/>
@@ -7563,7 +8005,7 @@
     </row>
     <row r="17" spans="2:21" ht="13.5">
       <c r="B17" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>4</v>
       </c>
       <c r="C17" s="16"/>
@@ -7588,7 +8030,7 @@
     </row>
     <row r="18" spans="2:21" ht="13.5">
       <c r="B18" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>5</v>
       </c>
       <c r="C18" s="16"/>
@@ -7613,7 +8055,7 @@
     </row>
     <row r="19" spans="2:21" ht="13.5">
       <c r="B19" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>6</v>
       </c>
       <c r="C19" s="16"/>
@@ -7638,7 +8080,7 @@
     </row>
     <row r="20" spans="2:21" ht="13.5">
       <c r="B20" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>7</v>
       </c>
       <c r="C20" s="16"/>
@@ -7663,7 +8105,7 @@
     </row>
     <row r="21" spans="2:21" ht="13.5">
       <c r="B21" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>8</v>
       </c>
       <c r="C21" s="16"/>
@@ -7688,7 +8130,7 @@
     </row>
     <row r="22" spans="2:21" ht="13.5">
       <c r="B22" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>9</v>
       </c>
       <c r="C22" s="16"/>
@@ -7713,7 +8155,7 @@
     </row>
     <row r="23" spans="2:21" ht="13.5">
       <c r="B23" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>10</v>
       </c>
       <c r="C23" s="16"/>
@@ -7756,7 +8198,7 @@
       <selection activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
       <selection pane="topRight" activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
       <selection pane="bottomLeft" activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12"/>
@@ -7773,17 +8215,17 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -7792,63 +8234,63 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -7856,17 +8298,17 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="14" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="14" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -7874,7 +8316,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="14" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -7882,7 +8324,7 @@
     </row>
     <row r="14" spans="1:6" ht="13.5">
       <c r="B14" s="17">
-        <f t="shared" ref="B14:B23" si="0">ROW() - 13</f>
+        <f>ROW() - 13</f>
         <v>1</v>
       </c>
       <c r="C14" s="16"/>
@@ -7891,7 +8333,7 @@
     </row>
     <row r="15" spans="1:6" ht="13.5">
       <c r="B15" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>2</v>
       </c>
       <c r="C15" s="16"/>
@@ -7900,7 +8342,7 @@
     </row>
     <row r="16" spans="1:6" ht="13.5">
       <c r="B16" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>3</v>
       </c>
       <c r="C16" s="16"/>
@@ -7909,7 +8351,7 @@
     </row>
     <row r="17" spans="2:5" ht="13.5">
       <c r="B17" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>4</v>
       </c>
       <c r="C17" s="16"/>
@@ -7918,7 +8360,7 @@
     </row>
     <row r="18" spans="2:5" ht="13.5">
       <c r="B18" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>5</v>
       </c>
       <c r="C18" s="16"/>
@@ -7927,7 +8369,7 @@
     </row>
     <row r="19" spans="2:5" ht="13.5">
       <c r="B19" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>6</v>
       </c>
       <c r="C19" s="16"/>
@@ -7936,7 +8378,7 @@
     </row>
     <row r="20" spans="2:5" ht="13.5">
       <c r="B20" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>7</v>
       </c>
       <c r="C20" s="16"/>
@@ -7945,7 +8387,7 @@
     </row>
     <row r="21" spans="2:5" ht="13.5">
       <c r="B21" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>8</v>
       </c>
       <c r="C21" s="16"/>
@@ -7954,7 +8396,7 @@
     </row>
     <row r="22" spans="2:5" ht="13.5">
       <c r="B22" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>9</v>
       </c>
       <c r="C22" s="16"/>
@@ -7963,7 +8405,7 @@
     </row>
     <row r="23" spans="2:5" ht="13.5">
       <c r="B23" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>10</v>
       </c>
       <c r="C23" s="16"/>
@@ -7990,7 +8432,7 @@
       <selection activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
       <selection pane="topRight" activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
       <selection pane="bottomLeft" activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12"/>
@@ -8007,17 +8449,17 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -8026,21 +8468,21 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -8048,35 +8490,35 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -8084,17 +8526,17 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -8102,7 +8544,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -8110,7 +8552,7 @@
     </row>
     <row r="14" spans="1:6" ht="13.5">
       <c r="B14" s="17">
-        <f t="shared" ref="B14:B23" si="0">ROW() - 13</f>
+        <f>ROW() - 13</f>
         <v>1</v>
       </c>
       <c r="C14" s="16"/>
@@ -8119,7 +8561,7 @@
     </row>
     <row r="15" spans="1:6" ht="13.5">
       <c r="B15" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>2</v>
       </c>
       <c r="C15" s="16"/>
@@ -8128,7 +8570,7 @@
     </row>
     <row r="16" spans="1:6" ht="13.5">
       <c r="B16" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>3</v>
       </c>
       <c r="C16" s="16"/>
@@ -8137,7 +8579,7 @@
     </row>
     <row r="17" spans="2:5" ht="13.5">
       <c r="B17" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>4</v>
       </c>
       <c r="C17" s="16"/>
@@ -8146,7 +8588,7 @@
     </row>
     <row r="18" spans="2:5" ht="13.5">
       <c r="B18" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>5</v>
       </c>
       <c r="C18" s="16"/>
@@ -8155,7 +8597,7 @@
     </row>
     <row r="19" spans="2:5" ht="13.5">
       <c r="B19" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>6</v>
       </c>
       <c r="C19" s="16"/>
@@ -8164,7 +8606,7 @@
     </row>
     <row r="20" spans="2:5" ht="13.5">
       <c r="B20" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>7</v>
       </c>
       <c r="C20" s="16"/>
@@ -8173,7 +8615,7 @@
     </row>
     <row r="21" spans="2:5" ht="13.5">
       <c r="B21" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>8</v>
       </c>
       <c r="C21" s="16"/>
@@ -8182,7 +8624,7 @@
     </row>
     <row r="22" spans="2:5" ht="13.5">
       <c r="B22" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>9</v>
       </c>
       <c r="C22" s="16"/>
@@ -8191,7 +8633,7 @@
     </row>
     <row r="23" spans="2:5" ht="13.5">
       <c r="B23" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>10</v>
       </c>
       <c r="C23" s="16"/>
@@ -8235,17 +8677,17 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -8254,27 +8696,27 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -8282,41 +8724,41 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -8325,10 +8767,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -8336,7 +8778,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -8345,7 +8787,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -8489,17 +8931,17 @@
     </row>
     <row r="2" spans="1:25">
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="B3" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -8508,81 +8950,81 @@
     </row>
     <row r="6" spans="1:25">
       <c r="B6" s="12" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="L6" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="M6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="P6" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="Q6" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="R6" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="S6" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="T6" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="U6" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="V6" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="W6" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="X6" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="Y6" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="B7" s="14" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -8610,155 +9052,155 @@
     </row>
     <row r="8" spans="1:25">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="L8" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="M8" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="N8" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="O8" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="Q8" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="O8" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="P8" s="15" t="s">
+      <c r="R8" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="S8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="U8" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="V8" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="S8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="U8" s="15" t="s">
+      <c r="W8" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="X8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="W8" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Y9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -8786,10 +9228,10 @@
     </row>
     <row r="11" spans="1:25">
       <c r="B11" s="14" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -8816,7 +9258,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="B12" s="14" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -8844,7 +9286,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="B13" s="14" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -8872,7 +9314,7 @@
     </row>
     <row r="14" spans="1:25" ht="13.5">
       <c r="B14" s="17">
-        <f t="shared" ref="B14:B23" si="0">ROW() - 13</f>
+        <f>ROW() - 13</f>
         <v>1</v>
       </c>
       <c r="C14" s="16"/>
@@ -8901,7 +9343,7 @@
     </row>
     <row r="15" spans="1:25" ht="13.5">
       <c r="B15" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>2</v>
       </c>
       <c r="C15" s="16"/>
@@ -8930,7 +9372,7 @@
     </row>
     <row r="16" spans="1:25" ht="13.5">
       <c r="B16" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>3</v>
       </c>
       <c r="C16" s="16"/>
@@ -8959,7 +9401,7 @@
     </row>
     <row r="17" spans="2:25" ht="13.5">
       <c r="B17" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>4</v>
       </c>
       <c r="C17" s="16"/>
@@ -8988,7 +9430,7 @@
     </row>
     <row r="18" spans="2:25" ht="13.5">
       <c r="B18" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>5</v>
       </c>
       <c r="C18" s="16"/>
@@ -9017,7 +9459,7 @@
     </row>
     <row r="19" spans="2:25" ht="13.5">
       <c r="B19" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>6</v>
       </c>
       <c r="C19" s="16"/>
@@ -9046,7 +9488,7 @@
     </row>
     <row r="20" spans="2:25" ht="13.5">
       <c r="B20" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>7</v>
       </c>
       <c r="C20" s="16"/>
@@ -9075,7 +9517,7 @@
     </row>
     <row r="21" spans="2:25" ht="13.5">
       <c r="B21" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>8</v>
       </c>
       <c r="C21" s="16"/>
@@ -9104,7 +9546,7 @@
     </row>
     <row r="22" spans="2:25" ht="13.5">
       <c r="B22" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>9</v>
       </c>
       <c r="C22" s="16"/>
@@ -9133,7 +9575,7 @@
     </row>
     <row r="23" spans="2:25" ht="13.5">
       <c r="B23" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW() - 13</f>
         <v>10</v>
       </c>
       <c r="C23" s="16"/>
@@ -9197,17 +9639,17 @@
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -9216,39 +9658,39 @@
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -9262,71 +9704,71 @@
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="J8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -9340,10 +9782,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -9356,7 +9798,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -9370,7 +9812,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="B13" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
